--- a/RE-Framework_RPA06_부동산공시가격/Data/Config.xlsx
+++ b/RE-Framework_RPA06_부동산공시가격/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA06_부동산공시가격_박채연\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA06_부동산공시가격\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2ED308-DC25-4F33-8F71-063B1F3F1829}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F529D1C-BAA2-4946-8DF7-FF61DBF9BA9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,98 +181,6 @@
   </si>
   <si>
     <t>MailBody_NoData</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;nbsp;RPA_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{1}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;nbsp;결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">를&amp;nbsp;확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;Link : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{3}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/span&gt;&lt;/p&gt;</t>
-    </r>
   </si>
   <si>
     <t>{0}=날짜
@@ -731,6 +639,99 @@
   <si>
     <t>mangoperry2015@gmail.com</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;nbsp;RPA_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;nbsp;결과 안내 메일입니다.&lt;/span&gt;&lt;br&gt;
+&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를&amp;nbsp;확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;&lt;br&gt;
+&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;Link : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/span&gt;&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1348,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="15"/>
@@ -1398,7 +1399,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -1407,7 +1408,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -1416,7 +1417,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>34</v>
@@ -1453,13 +1454,13 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1471,19 +1472,19 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -1492,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>44</v>
@@ -1507,10 +1508,10 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>46</v>
@@ -1527,10 +1528,10 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1543,106 +1544,106 @@
     </row>
     <row r="18" spans="1:3" ht="40.5">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="409.5">
       <c r="A19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="67.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="94.5">
       <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="C28" s="31"/>
     </row>
@@ -1669,11 +1670,11 @@
     </row>
     <row r="32" spans="1:3" ht="27">
       <c r="A32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1727,13 +1728,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="20">
         <v>0</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5">
@@ -1749,35 +1750,35 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="20">
         <v>5000</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="20">
         <v>30000</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="20">
         <v>120000</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1803,35 +1804,35 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="20">
         <v>1000</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="20">
         <v>15000</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="20">
         <v>60000</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1841,35 +1842,35 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="20">
         <v>0.6</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="20">
         <v>0.8</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="20">
         <v>0.9</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1882,10 +1883,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1893,7 +1894,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>9</v>
@@ -1907,7 +1908,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1918,7 +1919,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1929,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2019,7 +2020,7 @@
     <row r="36" spans="1:3">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36"/>
     </row>
